--- a/doc/huyingying_bug_work flow.xlsx
+++ b/doc/huyingying_bug_work flow.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10">
   <si>
     <t>bug描述</t>
   </si>
@@ -26,9 +26,6 @@
   </si>
   <si>
     <t>已完成</t>
-  </si>
-  <si>
-    <t>坐车回上海</t>
   </si>
   <si>
     <t>日间，夜间功能，按照搜狗浏览器的样式实现</t>
@@ -82,9 +79,9 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="7">
     <font>
@@ -222,7 +219,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
@@ -256,7 +253,10 @@
     <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
   </cellXfs>
@@ -693,7 +693,7 @@
   <dimension ref="A1:K11"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
+      <selection activeCell="B4" sqref="B4:B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="7.62666666666667" defaultRowHeight="13.5" customHeight="1"/>
@@ -742,9 +742,7 @@
       </c>
       <c r="C2" s="7"/>
       <c r="D2" s="8"/>
-      <c r="E2" s="9" t="s">
-        <v>4</v>
-      </c>
+      <c r="E2" s="9"/>
       <c r="F2" s="8"/>
       <c r="G2" s="8"/>
       <c r="H2" s="8"/>
@@ -754,10 +752,10 @@
     </row>
     <row r="3" ht="18" customHeight="1" spans="1:11">
       <c r="A3" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" s="6" t="s">
         <v>5</v>
-      </c>
-      <c r="B3" s="6" t="s">
-        <v>6</v>
       </c>
       <c r="C3" s="7"/>
       <c r="D3" s="8"/>
@@ -771,10 +769,10 @@
     </row>
     <row r="4" ht="18" customHeight="1" spans="1:11">
       <c r="A4" s="5" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B4" s="6" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="C4" s="11"/>
       <c r="D4" s="8"/>
@@ -788,7 +786,7 @@
     </row>
     <row r="5" ht="18" customHeight="1" spans="1:11">
       <c r="A5" s="5" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B5" s="6" t="s">
         <v>3</v>
@@ -805,13 +803,13 @@
     </row>
     <row r="6" ht="18" customHeight="1" spans="1:11">
       <c r="A6" s="5" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B6" s="6" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="C6" s="7"/>
-      <c r="D6" s="10"/>
+      <c r="D6" s="12"/>
       <c r="E6" s="9"/>
       <c r="F6" s="8"/>
       <c r="G6" s="8"/>
@@ -822,10 +820,10 @@
     </row>
     <row r="7" ht="21" customHeight="1" spans="1:11">
       <c r="A7" s="5" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B7" s="6" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C7" s="7"/>
       <c r="D7" s="8"/>
